--- a/distribuicao incondicional produtos.xlsx
+++ b/distribuicao incondicional produtos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Github\POF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\POF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71759043-4A8B-4E53-90F8-C67DE7E7C07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{045706B3-9586-48F7-85F2-53B08FCF6CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-26280" yWindow="4920" windowWidth="14625" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="distribuicao incondicional prod" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Outro</t>
+    <t>Outros</t>
   </si>
 </sst>
 </file>
@@ -931,14 +931,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
